--- a/output/Nepal_aggregated.xlsx
+++ b/output/Nepal_aggregated.xlsx
@@ -32,331 +32,331 @@
     <t xml:space="preserve">European Commission</t>
   </si>
   <si>
+    <t xml:space="preserve">Red Cross Society of China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Republic of, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Jewish Relief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASYA SAR - KYM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar Charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Solidarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland, Government of</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taiwan International Cooperation and Development Fund</t>
   </si>
   <si>
-    <t xml:space="preserve">Red Cross Society of China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Republic of, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation, Government of</t>
+    <t xml:space="preserve">Austria, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Emergency Response Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Korea (Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Fund for UNICEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDeA Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Hellenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Chest Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Food Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disasters Emergency Committee (UK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish Red Crescent Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friends of UNFPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office for the Coordination of Humanitarian Affairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalGiving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Bangladesh, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">Singapore, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Jewish Relief</t>
+    <t xml:space="preserve">Azerbaijan, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia (Kingdom of), Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Development Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Bill and Melinda Gates Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish Red Crescent Society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASYA SAR - KYM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian Development Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Emergency Response Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Korea (Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Fund for UNICEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDeA Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Health Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalGiving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Chest Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friends of UNFPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Children's Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Development Programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Andorra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Food Programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office for the Coordination of Humanitarian Affairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar Charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Hellenic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Solidarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia (Kingdom of), Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Population Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disasters Emergency Committee (UK)</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1000000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="7">
@@ -741,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>840000</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="8">
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>19500</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="9">
@@ -757,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1586566</v>
       </c>
     </row>
     <row r="11">
@@ -773,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1586566</v>
+        <v>16730036</v>
       </c>
     </row>
     <row r="12">
@@ -781,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>16730036</v>
+        <v>1490081</v>
       </c>
     </row>
     <row r="13">
@@ -789,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1490081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -797,7 +797,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>12040930</v>
       </c>
     </row>
     <row r="15">
@@ -805,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>12040930</v>
+        <v>10290752</v>
       </c>
     </row>
     <row r="16">
@@ -813,7 +813,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>10290752</v>
+        <v>33745116</v>
       </c>
     </row>
     <row r="17">
@@ -821,7 +821,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>33745116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>534331</v>
       </c>
     </row>
     <row r="20">
@@ -845,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>534331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -853,7 +853,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>109170</v>
       </c>
     </row>
     <row r="22">
@@ -861,7 +861,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>482762</v>
       </c>
     </row>
     <row r="23">
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>109170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -877,7 +877,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>482762</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="25">
@@ -885,7 +885,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="26">
@@ -893,7 +893,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>500000</v>
+        <v>3065354</v>
       </c>
     </row>
     <row r="27">
@@ -901,7 +901,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>165000</v>
+        <v>74597577</v>
       </c>
     </row>
     <row r="28">
@@ -909,7 +909,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>3065354</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="29">
@@ -917,7 +917,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>74597577</v>
+        <v>21468626</v>
       </c>
     </row>
     <row r="30">
@@ -925,7 +925,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>1000000</v>
+        <v>22584287</v>
       </c>
     </row>
     <row r="31">
@@ -933,7 +933,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>21468626</v>
+        <v>60841</v>
       </c>
     </row>
     <row r="32">
@@ -941,7 +941,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>22584287</v>
+        <v>3376520</v>
       </c>
     </row>
     <row r="33">
@@ -949,7 +949,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>60841</v>
+        <v>1587727</v>
       </c>
     </row>
     <row r="34">
@@ -957,7 +957,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>3376520</v>
+        <v>5533694</v>
       </c>
     </row>
     <row r="35">
@@ -965,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>1587727</v>
+        <v>40355</v>
       </c>
     </row>
     <row r="36">
@@ -973,7 +973,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>5533694</v>
+        <v>20962</v>
       </c>
     </row>
     <row r="37">
@@ -981,7 +981,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>40355</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="38">
@@ -989,7 +989,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>936364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -997,7 +997,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>96965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1005,7 +1005,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>20962</v>
+        <v>10377952</v>
       </c>
     </row>
     <row r="41">
@@ -1013,7 +1013,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>845071</v>
+        <v>10388746</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>16233000</v>
       </c>
     </row>
     <row r="43">
@@ -1029,7 +1029,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>2043664</v>
+        <v>32779050</v>
       </c>
     </row>
     <row r="44">
@@ -1037,7 +1037,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>10377952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1045,7 +1045,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>1837572</v>
+        <v>223300</v>
       </c>
     </row>
     <row r="46">
@@ -1053,7 +1053,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>3000000</v>
+        <v>7275908</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1061,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>2477209</v>
+        <v>1837572</v>
       </c>
     </row>
     <row r="48">
@@ -1069,7 +1069,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>2043664</v>
       </c>
     </row>
     <row r="49">
@@ -1077,7 +1077,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2247805</v>
       </c>
     </row>
     <row r="50">
@@ -1085,7 +1085,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>10388746</v>
+        <v>2477209</v>
       </c>
     </row>
     <row r="51">
@@ -1093,7 +1093,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>16233000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="52">
@@ -1101,7 +1101,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>845071</v>
       </c>
     </row>
     <row r="53">
@@ -1109,7 +1109,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>113759</v>
+        <v>5123330</v>
       </c>
     </row>
     <row r="54">
@@ -1125,7 +1125,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>1000000</v>
+        <v>3190908</v>
       </c>
     </row>
     <row r="56">
@@ -1133,7 +1133,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>3190908</v>
+        <v>4536165</v>
       </c>
     </row>
     <row r="57">
@@ -1141,7 +1141,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>4536165</v>
+        <v>1726316</v>
       </c>
     </row>
     <row r="58">
@@ -1149,7 +1149,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>1726316</v>
+        <v>911655</v>
       </c>
     </row>
     <row r="59">
@@ -1157,7 +1157,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>911655</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="60">
@@ -1165,7 +1165,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>2500000</v>
+        <v>4534592</v>
       </c>
     </row>
     <row r="61">
@@ -1173,7 +1173,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>4534592</v>
+        <v>3832120</v>
       </c>
     </row>
     <row r="62">
@@ -1181,7 +1181,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>3832120</v>
+        <v>21573320</v>
       </c>
     </row>
     <row r="63">
@@ -1189,7 +1189,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>21573320</v>
+        <v>7782733</v>
       </c>
     </row>
     <row r="64">
@@ -1197,7 +1197,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>7782733</v>
+        <v>14232690</v>
       </c>
     </row>
     <row r="65">
@@ -1205,7 +1205,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>14232690</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="66">
@@ -1213,7 +1213,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="67">
@@ -1221,7 +1221,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>32779050</v>
+        <v>12578942</v>
       </c>
     </row>
     <row r="68">
@@ -1229,7 +1229,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>40000</v>
+        <v>1491512</v>
       </c>
     </row>
     <row r="69">
@@ -1237,7 +1237,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>527405</v>
+        <v>3403799</v>
       </c>
     </row>
     <row r="70">
@@ -1245,7 +1245,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>12578942</v>
+        <v>8483649</v>
       </c>
     </row>
     <row r="71">
@@ -1253,7 +1253,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>3000000</v>
+        <v>3493590</v>
       </c>
     </row>
     <row r="72">
@@ -1261,7 +1261,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>350000</v>
+        <v>120498</v>
       </c>
     </row>
     <row r="73">
@@ -1269,7 +1269,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>49664</v>
+        <v>2537025</v>
       </c>
     </row>
     <row r="74">
@@ -1277,7 +1277,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>5123330</v>
+        <v>972520</v>
       </c>
     </row>
     <row r="75">
@@ -1285,7 +1285,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>1491512</v>
+        <v>272124</v>
       </c>
     </row>
     <row r="76">
@@ -1293,7 +1293,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>3403799</v>
+        <v>7370249</v>
       </c>
     </row>
     <row r="77">
@@ -1301,7 +1301,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>8483649</v>
+        <v>38825491</v>
       </c>
     </row>
     <row r="78">
@@ -1309,7 +1309,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>3493590</v>
+        <v>357288</v>
       </c>
     </row>
     <row r="79">
@@ -1317,7 +1317,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>120498</v>
+        <v>588380</v>
       </c>
     </row>
     <row r="80">
@@ -1325,7 +1325,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>2537025</v>
+        <v>1838943</v>
       </c>
     </row>
     <row r="81">
@@ -1333,7 +1333,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>972520</v>
+        <v>28254</v>
       </c>
     </row>
     <row r="82">
@@ -1341,7 +1341,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>272124</v>
+        <v>1189321</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>7370249</v>
+        <v>55249</v>
       </c>
     </row>
     <row r="84">
@@ -1357,7 +1357,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>38825491</v>
+        <v>241822</v>
       </c>
     </row>
     <row r="85">
@@ -1365,7 +1365,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>19912</v>
       </c>
     </row>
     <row r="86">
@@ -1373,7 +1373,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>357288</v>
+        <v>218579</v>
       </c>
     </row>
     <row r="87">
@@ -1381,7 +1381,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>588380</v>
+        <v>53937</v>
       </c>
     </row>
     <row r="88">
@@ -1389,7 +1389,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>1838943</v>
+        <v>21786</v>
       </c>
     </row>
     <row r="89">
@@ -1397,7 +1397,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>1400000</v>
+        <v>601622</v>
       </c>
     </row>
     <row r="90">
@@ -1405,7 +1405,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>2247805</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="91">
@@ -1413,7 +1413,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>997252</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="92">
@@ -1421,7 +1421,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>28254</v>
+        <v>89787</v>
       </c>
     </row>
     <row r="93">
@@ -1429,7 +1429,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>1189321</v>
+        <v>55310</v>
       </c>
     </row>
     <row r="94">
@@ -1437,7 +1437,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>155066</v>
+        <v>22124</v>
       </c>
     </row>
     <row r="95">
@@ -1445,7 +1445,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>33431763</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="96">
@@ -1453,7 +1453,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>100000</v>
+        <v>155066</v>
       </c>
     </row>
     <row r="97">
@@ -1461,7 +1461,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>55249</v>
+        <v>33431763</v>
       </c>
     </row>
     <row r="98">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>241822</v>
+        <v>119184</v>
       </c>
     </row>
     <row r="99">
@@ -1477,7 +1477,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>19912</v>
+        <v>96965</v>
       </c>
     </row>
     <row r="100">
@@ -1485,7 +1485,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>218579</v>
+        <v>113759</v>
       </c>
     </row>
     <row r="101">
@@ -1493,7 +1493,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>53937</v>
+        <v>49664</v>
       </c>
     </row>
     <row r="102">
@@ -1501,7 +1501,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>21786</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="103">
@@ -1509,7 +1509,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>223300</v>
+        <v>527405</v>
       </c>
     </row>
     <row r="104">
@@ -1517,7 +1517,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>601622</v>
+        <v>100570</v>
       </c>
     </row>
     <row r="105">
@@ -1525,7 +1525,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>50000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="106">
@@ -1533,7 +1533,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>12000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>89787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -1549,7 +1549,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="n">
-        <v>7275908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1557,7 +1557,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>55310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1573,7 +1573,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>22124</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="112">
@@ -1581,7 +1581,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>220000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="113">
@@ -1589,7 +1589,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>100570</v>
+        <v>997252</v>
       </c>
     </row>
     <row r="114">
@@ -1597,7 +1597,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>119184</v>
+        <v>936364</v>
       </c>
     </row>
   </sheetData>
